--- a/tests/apdatatest.xlsx
+++ b/tests/apdatatest.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/Dev Area/PyPackages/packaging_dpkits/tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_C7A6D2FF5483FA5705600F7D5A4DD793DFBAB177" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE213F8-C5E5-4106-8FC1-79EF385E1C2C}"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Question" sheetId="1" r:id="rId4"/>
-    <sheet name="Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Question" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="257">
   <si>
     <t>Name of items</t>
   </si>
@@ -801,32 +806,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -837,10 +831,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -850,37 +841,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,19 +1174,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO50"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,50 +1390,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1621,14 +1623,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6"/>
       <c r="D6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1639,14 +1640,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
@@ -1657,38 +1657,35 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8"/>
       <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9"/>
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10"/>
       <c r="D10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1705,50 +1702,46 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11"/>
       <c r="D11" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12"/>
       <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13"/>
       <c r="D13" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14"/>
       <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1759,14 +1752,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15"/>
       <c r="D15" s="1" t="s">
         <v>104</v>
       </c>
@@ -1777,14 +1769,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16"/>
       <c r="D16" s="1" t="s">
         <v>107</v>
       </c>
@@ -1792,14 +1783,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17"/>
       <c r="D17" s="1" t="s">
         <v>107</v>
       </c>
@@ -1807,14 +1797,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="C18"/>
       <c r="D18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1822,14 +1811,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19"/>
       <c r="D19" s="1" t="s">
         <v>107</v>
       </c>
@@ -1837,14 +1825,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="C20"/>
       <c r="D20" s="1" t="s">
         <v>107</v>
       </c>
@@ -1852,26 +1839,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21"/>
       <c r="D21" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22"/>
       <c r="D22" s="1" t="s">
         <v>119</v>
       </c>
@@ -1882,14 +1867,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="C23"/>
       <c r="D23" s="1" t="s">
         <v>121</v>
       </c>
@@ -1897,14 +1881,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24"/>
       <c r="D24" s="1" t="s">
         <v>121</v>
       </c>
@@ -1912,14 +1895,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C25"/>
       <c r="D25" s="1" t="s">
         <v>121</v>
       </c>
@@ -1927,14 +1909,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26"/>
       <c r="D26" s="1" t="s">
         <v>121</v>
       </c>
@@ -1942,14 +1923,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="C27"/>
       <c r="D27" s="1" t="s">
         <v>121</v>
       </c>
@@ -1957,14 +1937,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
       <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C28"/>
       <c r="D28" s="1" t="s">
         <v>121</v>
       </c>
@@ -1972,14 +1951,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29"/>
       <c r="D29" s="1" t="s">
         <v>121</v>
       </c>
@@ -1987,14 +1965,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="C30"/>
       <c r="D30" s="1" t="s">
         <v>121</v>
       </c>
@@ -2002,14 +1979,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="C31"/>
       <c r="D31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2017,14 +1993,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>139</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="C32"/>
       <c r="D32" s="1" t="s">
         <v>121</v>
       </c>
@@ -2032,14 +2007,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>141</v>
       </c>
       <c r="B33" t="s">
         <v>106</v>
       </c>
-      <c r="C33"/>
       <c r="D33" s="1" t="s">
         <v>121</v>
       </c>
@@ -2047,14 +2021,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
       <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="C34"/>
       <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
@@ -2062,14 +2035,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="C35"/>
       <c r="D35" s="1" t="s">
         <v>121</v>
       </c>
@@ -2077,14 +2049,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>147</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="C36"/>
       <c r="D36" s="1" t="s">
         <v>121</v>
       </c>
@@ -2092,14 +2063,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="C37"/>
       <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
@@ -2107,14 +2077,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
-      <c r="C38"/>
       <c r="D38" s="1" t="s">
         <v>121</v>
       </c>
@@ -2122,14 +2091,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C39"/>
       <c r="D39" s="1" t="s">
         <v>121</v>
       </c>
@@ -2137,14 +2105,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40"/>
       <c r="D40" s="1" t="s">
         <v>121</v>
       </c>
@@ -2152,14 +2119,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="C41"/>
       <c r="D41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2167,14 +2133,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C42"/>
       <c r="D42" s="1" t="s">
         <v>121</v>
       </c>
@@ -2182,14 +2147,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43"/>
       <c r="D43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2197,14 +2161,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
       <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="C44"/>
       <c r="D44" s="1" t="s">
         <v>121</v>
       </c>
@@ -2212,38 +2175,35 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45"/>
       <c r="D45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46"/>
       <c r="D46" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47"/>
       <c r="D47" s="1" t="s">
         <v>169</v>
       </c>
@@ -2260,1021 +2220,942 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:67">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48"/>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49"/>
       <c r="D49" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50"/>
       <c r="D50" s="1" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:CZ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:CZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:CZ8"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="DA1" sqref="DA1:DA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.3" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19.3" customWidth="true" style="0"/>
-    <col min="16" max="16" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="29.421387" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="19.3" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="19.3" customWidth="true" style="0"/>
-    <col min="32" max="32" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10" customWidth="true" style="0"/>
-    <col min="34" max="34" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19.3" customWidth="true" style="0"/>
-    <col min="41" max="41" width="19.3" customWidth="true" style="0"/>
-    <col min="42" max="42" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="10" customWidth="true" style="0"/>
-    <col min="44" max="44" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="56" max="56" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="57" max="57" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="58" max="58" width="10" customWidth="true" style="0"/>
-    <col min="59" max="59" width="10" customWidth="true" style="0"/>
-    <col min="60" max="60" width="10" customWidth="true" style="0"/>
-    <col min="61" max="61" width="10" customWidth="true" style="0"/>
-    <col min="62" max="62" width="10" customWidth="true" style="0"/>
-    <col min="63" max="63" width="10" customWidth="true" style="0"/>
-    <col min="64" max="64" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="65" max="65" width="10" customWidth="true" style="0"/>
-    <col min="66" max="66" width="10" customWidth="true" style="0"/>
-    <col min="67" max="67" width="10" customWidth="true" style="0"/>
-    <col min="68" max="68" width="10" customWidth="true" style="0"/>
-    <col min="69" max="69" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="76" max="76" width="10" customWidth="true" style="0"/>
-    <col min="100" max="100" width="10" customWidth="true" style="0"/>
-    <col min="101" max="101" width="10" customWidth="true" style="0"/>
-    <col min="102" max="102" width="10" customWidth="true" style="0"/>
-    <col min="103" max="103" width="10" customWidth="true" style="0"/>
-    <col min="104" max="104" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="70" max="70" width="10" customWidth="true" style="0"/>
-    <col min="71" max="71" width="10" customWidth="true" style="0"/>
-    <col min="72" max="72" width="10" customWidth="true" style="0"/>
-    <col min="73" max="73" width="10" customWidth="true" style="0"/>
-    <col min="74" max="74" width="10" customWidth="true" style="0"/>
-    <col min="75" max="75" width="10" customWidth="true" style="0"/>
-    <col min="77" max="77" width="10" customWidth="true" style="0"/>
-    <col min="78" max="78" width="10" customWidth="true" style="0"/>
-    <col min="79" max="79" width="10" customWidth="true" style="0"/>
-    <col min="80" max="80" width="10" customWidth="true" style="0"/>
-    <col min="81" max="81" width="10" customWidth="true" style="0"/>
-    <col min="82" max="82" width="10" customWidth="true" style="0"/>
-    <col min="83" max="83" width="10" customWidth="true" style="0"/>
-    <col min="84" max="84" width="10" customWidth="true" style="0"/>
-    <col min="85" max="85" width="10" customWidth="true" style="0"/>
-    <col min="86" max="86" width="10" customWidth="true" style="0"/>
-    <col min="87" max="87" width="10" customWidth="true" style="0"/>
-    <col min="88" max="88" width="10" customWidth="true" style="0"/>
-    <col min="89" max="89" width="10" customWidth="true" style="0"/>
-    <col min="90" max="90" width="10" customWidth="true" style="0"/>
-    <col min="91" max="91" width="10" customWidth="true" style="0"/>
-    <col min="92" max="92" width="10" customWidth="true" style="0"/>
-    <col min="93" max="93" width="10" customWidth="true" style="0"/>
-    <col min="94" max="94" width="10" customWidth="true" style="0"/>
-    <col min="95" max="95" width="10" customWidth="true" style="0"/>
-    <col min="96" max="96" width="10" customWidth="true" style="0"/>
-    <col min="97" max="97" width="10" customWidth="true" style="0"/>
-    <col min="98" max="98" width="10" customWidth="true" style="0"/>
-    <col min="99" max="99" width="10" customWidth="true" style="0"/>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" customWidth="1"/>
+    <col min="29" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.28515625" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="19.28515625" customWidth="1"/>
+    <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" customWidth="1"/>
+    <col min="44" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="63" width="10" customWidth="1"/>
+    <col min="64" max="64" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="68" width="10" customWidth="1"/>
+    <col min="69" max="69" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="103" width="10" customWidth="1"/>
+    <col min="104" max="104" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:104">
+    <row r="2" spans="1:104" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:104">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:104">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AV5" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="AX5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AY5" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BE5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BF5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BG5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BI5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BJ5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BL5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BM5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BN5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BP5" s="3" t="s">
+      <c r="BP5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BQ5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BR5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BS5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BT5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BU5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BV5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BW5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BX5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BY5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="BZ5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CA5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="CB5" s="3" t="s">
+      <c r="CB5" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CC5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CD5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CE5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CF5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CG5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CH5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CI5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CK5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CL5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CM5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="CN5" s="3" t="s">
+      <c r="CN5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="CO5" s="3" t="s">
+      <c r="CO5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="CP5" s="3" t="s">
+      <c r="CP5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="CQ5" s="3" t="s">
+      <c r="CQ5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CR5" s="3" t="s">
+      <c r="CR5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="CS5" s="3" t="s">
+      <c r="CS5" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CT5" s="3" t="s">
+      <c r="CT5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="CU5" s="3" t="s">
+      <c r="CU5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="CV5" s="3" t="s">
+      <c r="CV5" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="CW5" s="3" t="s">
+      <c r="CW5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="CX5" s="3" t="s">
+      <c r="CX5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="CY5" s="3" t="s">
+      <c r="CY5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="CZ5" s="3" t="s">
+      <c r="CZ5" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:104">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
-      <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
-      <c r="CK6" s="3"/>
-      <c r="CL6" s="3"/>
-      <c r="CM6" s="3"/>
-      <c r="CN6" s="3"/>
-      <c r="CO6" s="3"/>
-      <c r="CP6" s="3"/>
-      <c r="CQ6" s="3"/>
-      <c r="CR6" s="3"/>
-      <c r="CS6" s="3"/>
-      <c r="CT6" s="3"/>
-      <c r="CU6" s="3"/>
-      <c r="CV6" s="3"/>
-      <c r="CW6" s="3"/>
-      <c r="CX6" s="3"/>
-      <c r="CY6" s="3"/>
-      <c r="CZ6" s="3"/>
-    </row>
-    <row r="7" spans="1:104">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-      <c r="BX7" s="3"/>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="3"/>
-      <c r="CC7" s="3"/>
-      <c r="CD7" s="3"/>
-      <c r="CE7" s="3"/>
-      <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
-      <c r="CH7" s="3"/>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
-      <c r="CO7" s="3"/>
-      <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
-      <c r="CX7" s="3"/>
-      <c r="CY7" s="3"/>
-      <c r="CZ7" s="3"/>
-    </row>
-    <row r="8" spans="1:104">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="5"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+    </row>
+    <row r="8" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>643262</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4">
         <v>1</v>
       </c>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5" t="s">
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="BD8" s="5" t="s">
+      <c r="BD8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="BE8" s="5" t="s">
+      <c r="BE8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="BF8" s="5" t="s">
+      <c r="BF8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BG8" s="3">
         <v>2</v>
       </c>
-      <c r="BH8" s="4">
+      <c r="BH8" s="3">
         <v>2</v>
       </c>
-      <c r="BI8" s="4">
+      <c r="BI8" s="3">
         <v>1</v>
       </c>
-      <c r="BJ8" s="5" t="s">
+      <c r="BJ8" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="BK8" s="5" t="s">
+      <c r="BK8" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="BL8" s="4">
+      <c r="BL8" s="3">
         <v>4</v>
       </c>
-      <c r="BM8" s="5" t="s">
+      <c r="BM8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BN8" s="5" t="s">
+      <c r="BN8" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="BO8" s="5" t="s">
+      <c r="BO8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BP8" s="4">
+      <c r="BP8" s="3">
         <v>1</v>
       </c>
-      <c r="BQ8" s="4">
+      <c r="BQ8" s="3">
         <v>1</v>
       </c>
-      <c r="BR8" s="4">
+      <c r="BR8" s="3">
         <v>1</v>
       </c>
-      <c r="BS8" s="4">
+      <c r="BS8" s="3">
         <v>1</v>
       </c>
-      <c r="BT8" s="4">
+      <c r="BT8" s="3">
         <v>1</v>
       </c>
-      <c r="BU8" s="4">
+      <c r="BU8" s="3">
         <v>1</v>
       </c>
-      <c r="BV8" s="4"/>
-      <c r="BW8" s="4"/>
-      <c r="BX8" s="4">
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3">
         <v>1</v>
       </c>
-      <c r="BY8" s="4"/>
-      <c r="BZ8" s="4"/>
-      <c r="CA8" s="4">
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3">
         <v>1</v>
       </c>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
-      <c r="CD8" s="4"/>
-      <c r="CE8" s="4"/>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="4"/>
-      <c r="CH8" s="4"/>
-      <c r="CI8" s="4"/>
-      <c r="CJ8" s="4"/>
-      <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
-      <c r="CV8" s="4"/>
-      <c r="CW8" s="4">
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3">
         <v>1</v>
       </c>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="5" t="s">
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="4" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="104">
+    <mergeCell ref="CW5:CW7"/>
+    <mergeCell ref="CX5:CX7"/>
+    <mergeCell ref="CY5:CY7"/>
+    <mergeCell ref="CZ5:CZ7"/>
+    <mergeCell ref="CR5:CR7"/>
+    <mergeCell ref="CS5:CS7"/>
+    <mergeCell ref="CT5:CT7"/>
+    <mergeCell ref="CU5:CU7"/>
+    <mergeCell ref="CV5:CV7"/>
+    <mergeCell ref="CM5:CM7"/>
+    <mergeCell ref="CN5:CN7"/>
+    <mergeCell ref="CO5:CO7"/>
+    <mergeCell ref="CP5:CP7"/>
+    <mergeCell ref="CQ5:CQ7"/>
+    <mergeCell ref="CH5:CH7"/>
+    <mergeCell ref="CI5:CI7"/>
+    <mergeCell ref="CJ5:CJ7"/>
+    <mergeCell ref="CK5:CK7"/>
+    <mergeCell ref="CL5:CL7"/>
+    <mergeCell ref="CC5:CC7"/>
+    <mergeCell ref="CD5:CD7"/>
+    <mergeCell ref="CE5:CE7"/>
+    <mergeCell ref="CF5:CF7"/>
+    <mergeCell ref="CG5:CG7"/>
+    <mergeCell ref="BX5:BX7"/>
+    <mergeCell ref="BY5:BY7"/>
+    <mergeCell ref="BZ5:BZ7"/>
+    <mergeCell ref="CA5:CA7"/>
+    <mergeCell ref="CB5:CB7"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BT5:BT7"/>
+    <mergeCell ref="BU5:BU7"/>
+    <mergeCell ref="BV5:BV7"/>
+    <mergeCell ref="BW5:BW7"/>
+    <mergeCell ref="BN5:BN7"/>
+    <mergeCell ref="BO5:BO7"/>
+    <mergeCell ref="BP5:BP7"/>
+    <mergeCell ref="BQ5:BQ7"/>
+    <mergeCell ref="BR5:BR7"/>
+    <mergeCell ref="BI5:BI7"/>
+    <mergeCell ref="BJ5:BJ7"/>
+    <mergeCell ref="BK5:BK7"/>
+    <mergeCell ref="BL5:BL7"/>
+    <mergeCell ref="BM5:BM7"/>
+    <mergeCell ref="BD5:BD7"/>
+    <mergeCell ref="BE5:BE7"/>
+    <mergeCell ref="BF5:BF7"/>
+    <mergeCell ref="BG5:BG7"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="AY5:AY7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA7"/>
+    <mergeCell ref="BB5:BB7"/>
+    <mergeCell ref="BC5:BC7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
     <mergeCell ref="U5:U7"/>
     <mergeCell ref="V5:V7"/>
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AO7"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="AQ5:AQ7"/>
-    <mergeCell ref="AR5:AR7"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="AT5:AT7"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="AY5:AY7"/>
-    <mergeCell ref="AZ5:AZ7"/>
-    <mergeCell ref="BA5:BA7"/>
-    <mergeCell ref="BB5:BB7"/>
-    <mergeCell ref="BC5:BC7"/>
-    <mergeCell ref="BD5:BD7"/>
-    <mergeCell ref="BE5:BE7"/>
-    <mergeCell ref="BF5:BF7"/>
-    <mergeCell ref="BG5:BG7"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="BI5:BI7"/>
-    <mergeCell ref="BJ5:BJ7"/>
-    <mergeCell ref="BK5:BK7"/>
-    <mergeCell ref="BL5:BL7"/>
-    <mergeCell ref="BM5:BM7"/>
-    <mergeCell ref="BN5:BN7"/>
-    <mergeCell ref="BO5:BO7"/>
-    <mergeCell ref="BP5:BP7"/>
-    <mergeCell ref="BQ5:BQ7"/>
-    <mergeCell ref="BR5:BR7"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BT5:BT7"/>
-    <mergeCell ref="BU5:BU7"/>
-    <mergeCell ref="BV5:BV7"/>
-    <mergeCell ref="BW5:BW7"/>
-    <mergeCell ref="BX5:BX7"/>
-    <mergeCell ref="BY5:BY7"/>
-    <mergeCell ref="BZ5:BZ7"/>
-    <mergeCell ref="CA5:CA7"/>
-    <mergeCell ref="CB5:CB7"/>
-    <mergeCell ref="CC5:CC7"/>
-    <mergeCell ref="CD5:CD7"/>
-    <mergeCell ref="CE5:CE7"/>
-    <mergeCell ref="CF5:CF7"/>
-    <mergeCell ref="CG5:CG7"/>
-    <mergeCell ref="CH5:CH7"/>
-    <mergeCell ref="CI5:CI7"/>
-    <mergeCell ref="CJ5:CJ7"/>
-    <mergeCell ref="CK5:CK7"/>
-    <mergeCell ref="CL5:CL7"/>
-    <mergeCell ref="CM5:CM7"/>
-    <mergeCell ref="CN5:CN7"/>
-    <mergeCell ref="CO5:CO7"/>
-    <mergeCell ref="CP5:CP7"/>
-    <mergeCell ref="CQ5:CQ7"/>
-    <mergeCell ref="CR5:CR7"/>
-    <mergeCell ref="CS5:CS7"/>
-    <mergeCell ref="CT5:CT7"/>
-    <mergeCell ref="CU5:CU7"/>
-    <mergeCell ref="CV5:CV7"/>
-    <mergeCell ref="CW5:CW7"/>
-    <mergeCell ref="CX5:CX7"/>
-    <mergeCell ref="CY5:CY7"/>
-    <mergeCell ref="CZ5:CZ7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>